--- a/class6/world_population.xlsx
+++ b/class6/world_population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\明远启航Python课\class6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003B68D-FDD4-41EC-919C-DF9DF2697B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B95C8-8D2E-4D2D-9DF4-B11559B56E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21400" yWindow="-570" windowWidth="20870" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2133,13 +2133,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>401</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>40099462</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>396</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>2811666</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>44177969</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>400</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>79034</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>34503774</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>93219</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>45808747</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>2790974</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>540</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>106537</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>471</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>25688079</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>270</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>8955797</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>495</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>10137750</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>407906</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>498</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1463265</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>435</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>169356251</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>281200</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>500</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>9340314</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>509</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>11592952</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>523</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>400031</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>257</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>12996895</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>63867</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>777486</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>12079472</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>402</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>3270943</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>2588423</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>499</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>214326223</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>31122</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>445373</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>6877743</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>301</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>22100683</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>564</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>12551213</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>587925</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>16589023</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>27198628</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>433</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>538</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>68136</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>5457154</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>17179740</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>172683</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>579</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>19493184</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>1412360000</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>466</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>51516562</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>543</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>821625</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>95894118</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>5835806</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>350</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>5153957</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>27478249</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>569</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>3899000</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>11256372</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>460</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>152369</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>1244188</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>297</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>10505772</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>393</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>5856733</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>226</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1105557</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>72412</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>11117873</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>17797737</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>315</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>109262178</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>347</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>6314167</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1634466</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>268</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>3620312</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>1330932</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1192271</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>120283026</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>512</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>52889</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>924610</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>5541017</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>442</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>67749632</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>304032</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>381</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>2341179</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>2639916</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>3708610</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>83196078</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>32833031</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>32669</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>411</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>10641221</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>56653</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>215</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>124610</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>170534</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>17109746</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>13531906</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>2060721</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>804567</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>11447569</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>10278345</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>406</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>7413100</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>534</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>9709891</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>372520</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>547</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1407563842</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>312</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>273753191</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>87923432</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>43533592</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>5033165</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>370</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>84263</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>9364000</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>491</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>59109668</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>394</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>2827695</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>221</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>125681593</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>520</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>11148278</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>536</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>19000988</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>309</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>53005614</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>128874</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>477</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>25971909</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>51744876</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>1786038</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>4250114</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>439</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>6691800</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>7425057</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>146</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>1884490</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>5592631</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>2281454</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>286</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>5193416</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>494</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>6735277</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>39039</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>458</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>2800839</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>640064</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>686607</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>549</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>28915653</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>503</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>19889742</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>280</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>33573874</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>343</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>521457</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>327</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>21904983</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>518536</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>42050</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>344</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>4614974</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>545</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1266060</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>546</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>126705138</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>113131</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>2615199</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>336</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>36686</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>3347782</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>619211</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>552</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>37076584</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>32077072</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>87</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>53798084</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>522</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>2530151</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>12511</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>30034989</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>17533044</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>124</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>271030</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>5122600</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>404</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>6850540</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>526</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>25252722</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>213401323</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>2065092</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>49481</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>267</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>5408320</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>330</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>4520471</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>563</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>231402117</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>340</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>18024</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>140</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>4351267</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>487</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>9949437</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>6703799</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>76</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>33715471</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>412</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>113880328</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>397</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>37747124</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>10325147</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>139</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>3263584</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>348</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>2688235</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>422</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>19119880</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>143449286</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>13461888</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>481</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>218764</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>33745</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>408</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>223107</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>470</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>35950396</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>236</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>16876720</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>580</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>6834326</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>313</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>99258</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>8420641</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>5453566</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>5447247</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>2108079</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>379</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>707851</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>119</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>17065581</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>117</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>59392255</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>10748272</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>425</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>47415750</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>149</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>22156000</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>462</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>47606</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>179651</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>581</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>31948</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>459</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>104332</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>110</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>45657202</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>449</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>612985</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>484</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>10415811</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>73</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>8703405</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>21324367</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>169</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>9750064</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>63588334</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>578</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>71601103</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>1320942</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>145</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>8644829</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>106017</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>517</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>1525663</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>12262946</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>74</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>84775404</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>450</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>6341855</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>559</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>121</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>11204</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>269</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>45853778</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>43792855</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>52</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>9365145</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>279</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>67326569</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>288</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>331893745</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>178</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>3426260</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>34915100</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>507</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>319137</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>374</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>28199867</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>295</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>97468029</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>71</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>105870</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>101</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>4922749</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>99</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>32981641</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>380</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>19473125</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>15993524</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>419</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>702976832</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>533</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>478185907</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>335</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>456520777</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>482</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>7481877</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>101430997</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>368</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>3411889059</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>310</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>2370204347</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>398</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>2123673456</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>2097669023</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>399</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>343067846</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>144</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>923777214</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>428</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>401575218</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>174</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>462341222</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>317</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>447199800</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>259</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>1001462452</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>188</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>861156745</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>342</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>1240629858</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>4917520297</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>6695397735</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>28</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>595016031</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>1182861407</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>1777877438</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>2321862159</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>377</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>654981699</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>593308001</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>222</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>639188695</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>1099568566</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>83</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>6619578961</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>461</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>718255072</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>444</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>3398187527</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>263</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>486167363</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>311</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>418047201</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>426</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>413124452</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>5901323889</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>180</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>370203720</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>465</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>197</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>1372736513</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>496</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>32708003</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>455</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>2602173</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>376</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>1116796245</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>88</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>1011043183</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>42792053</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>1901911604</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>353</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>1901911604</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>567</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>1181162739</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>1181063481</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>64</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>1181162739</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>2503136362</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>157</v>
       </c>
@@ -23499,19 +23499,19 @@
         <v>7888408686</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="D271" s="1"/>
     </row>
@@ -23528,13 +23528,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="13" width="50.875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="13" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>441</v>
       </c>
